--- a/QALegend/src/main/resources/QALegendnew.xlsx
+++ b/QALegend/src/main/resources/QALegendnew.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anups\git\QALegend\QALegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF51874A-01E6-4AD6-B56F-883B43A6729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246AED0-C0F2-47FB-82E8-32E500D6493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Homepage" sheetId="4" r:id="rId2"/>
-    <sheet name="Resetpasswordpage" sheetId="2" r:id="rId3"/>
-    <sheet name="Usermanagementpage" sheetId="3" r:id="rId4"/>
+    <sheet name="UsersPage" sheetId="5" r:id="rId2"/>
+    <sheet name="Homepage" sheetId="4" r:id="rId3"/>
+    <sheet name="Resetpasswordpage" sheetId="2" r:id="rId4"/>
+    <sheet name="Usermanagementpage" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>zsijq@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -479,6 +483,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60C4D61-602C-452B-B852-C4BCA577BE9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D2C29C06-45A5-4B51-B545-07A7F0907585}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A28D35A-5CD8-46FA-9EC6-4E619C9DF5E5}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -514,7 +544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E0B0EA-DDD3-4818-860F-2A69D3E8281B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -556,11 +586,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECECB93C-ABF1-421A-BD68-3A2DE56B1E4E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/QALegend/src/main/resources/QALegendnew.xlsx
+++ b/QALegend/src/main/resources/QALegendnew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anups\git\QALegend\QALegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246AED0-C0F2-47FB-82E8-32E500D6493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9D73E8-F16F-4DF3-8ED6-F0C6DDB85467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -64,14 +64,14 @@
     <t>These credentials do not match our records.</t>
   </si>
   <si>
-    <t>zsijq@gmail.com</t>
+    <t>aVedB@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +110,28 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,12 +154,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -162,6 +202,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,26 +530,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60C4D61-602C-452B-B852-C4BCA577BE9A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D2C29C06-45A5-4B51-B545-07A7F0907585}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -590,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECECB93C-ABF1-421A-BD68-3A2DE56B1E4E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
